--- a/results/I3_N5_M2_T30_C200_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.18571823728904</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1170001029968262</v>
+        <v>0.06999993324279785</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.193992048208462e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728904</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1055595309058</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>23.10555953090577</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.23570364914812</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.88393248259582</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.55091596648894</v>
+        <v>25.4627824732681</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3990000000323</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000000752</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23199999998825</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>163.3300000000237</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>89.35200000000445</v>
+        <v>184.8</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>163.3300000000366</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>152.3990000000488</v>
+        <v>184.8</v>
       </c>
     </row>
   </sheetData>
